--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_003.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_003.xlsx
@@ -31,324 +31,324 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295016AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Abandonment criteria</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295005AA1.07) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295027EK2.04) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems.</t>
-  </si>
-  <si>
-    <t>(700000AA2.01) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operating point on the generator capability curve</t>
-  </si>
-  <si>
-    <t>(295037EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Hot shutdown boron weight</t>
-  </si>
-  <si>
-    <t>(295024EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Emergency depressurization</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295021AA1.05) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Reactor recirculation</t>
-  </si>
-  <si>
-    <t>(295019AK2.23) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Service water</t>
-  </si>
-  <si>
-    <t>(295006AA2.03) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295003AK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load sequencing</t>
+    <t>(295016AK2.13) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
+  </si>
+  <si>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
+  </si>
+  <si>
+    <t>(700000AA1.07) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Emergency generators (diesel/jet)</t>
+  </si>
+  <si>
+    <t>(295037EK2.23) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) SRVs</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Primary containment integrity</t>
   </si>
   <si>
     <t>(295025EK3.08) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system operation</t>
   </si>
   <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(295026EK2.09) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
-  </si>
-  <si>
-    <t>(295001AA2.01) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Power/flow map</t>
-  </si>
-  <si>
-    <t>(295018AA1.03) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Affected systems so as to isolate damaged portions</t>
-  </si>
-  <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(295017AK2.15) Knowledge of the relationship between the (APE 17) ABNORMAL OFFSITE RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(295032EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Equipment operability</t>
-  </si>
-  <si>
-    <t>(295002AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Loss of heat sink</t>
-  </si>
-  <si>
-    <t>(295007AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reducing reactor power</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295022AA1.02) Ability to operate and/or monitor the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(223002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Primary containment integrity</t>
-  </si>
-  <si>
-    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
-  </si>
-  <si>
-    <t>(215003A4.01) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM recorder indication</t>
-  </si>
-  <si>
-    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
-  </si>
-  <si>
-    <t>(215005K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Redundant reactivity control system</t>
-  </si>
-  <si>
-    <t>(217000K4.14) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Control oil to turbine speed controls</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(264000K3.04) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Bus frequency/voltage</t>
-  </si>
-  <si>
-    <t>(400000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Service water system</t>
-  </si>
-  <si>
-    <t>(262002A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Inverter outputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(262001A2.03) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of/degraded offsite power </t>
-  </si>
-  <si>
-    <t>(209002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(510000A3.03) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Traveling screen operation</t>
-  </si>
-  <si>
-    <t>(209001A4.01) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Core spray pump</t>
-  </si>
-  <si>
-    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
-  </si>
-  <si>
-    <t>(218000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) LPCS system</t>
-  </si>
-  <si>
-    <t>(203000K4.16) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Manual system initiation</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291005K1.06) MOTORS AND GENERATORS (CFR: 41.7) Reason for limiting the number of motor starts in a given time period</t>
+    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
+  </si>
+  <si>
+    <t>(295001AA1.05) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(295030EK2.01) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) HPCI</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor pressure control</t>
+  </si>
+  <si>
+    <t>(295023AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Refueling interlocks</t>
+  </si>
+  <si>
+    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
+  </si>
+  <si>
+    <t>(295024EA1.16) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Containment/drywell vacuum breakers</t>
+  </si>
+  <si>
+    <t>(295006AK2.05) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD mechanism</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295002AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295014AA2.04) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Violation of fuel thermal limits</t>
+  </si>
+  <si>
+    <t>(295007AA1.06) Ability to operate and/or monitor the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Shutdown cooling system (RHR shutdown cooling mode)</t>
+  </si>
+  <si>
+    <t>(295022AK2.03) Knowledge of the relationship between the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS and the following systems or components: (CFR: 41.7 / 45.8) Accumulator</t>
+  </si>
+  <si>
+    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295036EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Maximum safe operating limit</t>
+  </si>
+  <si>
+    <t>(209001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Testable check valve operation</t>
+  </si>
+  <si>
+    <t>(300000K2.01) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Instrument air compressor</t>
+  </si>
+  <si>
+    <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(215003K3.05) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) APRM system</t>
+  </si>
+  <si>
+    <t>(203000A2.14) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Initiation logic failure</t>
+  </si>
+  <si>
+    <t>(217000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler Instrumentation</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(264000A4.03) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of emergency control between manual and automatic</t>
+  </si>
+  <si>
+    <t>(261000K4.04) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Radioactive particulate filtration</t>
+  </si>
+  <si>
+    <t>(212000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) RPS bus status</t>
+  </si>
+  <si>
+    <t>(211000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) AC power</t>
+  </si>
+  <si>
+    <t>(262002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Static switch/inverter operation</t>
+  </si>
+  <si>
+    <t>(510000K2.01) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system pumps (Class 1E)</t>
+  </si>
+  <si>
+    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
   </si>
   <si>
     <t>(239002K3.05) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool</t>
   </si>
   <si>
-    <t>(215004K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detector drive motor</t>
-  </si>
-  <si>
-    <t>(300000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Service air pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(205000A2.10) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal valve position </t>
-  </si>
-  <si>
-    <t>(223002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Secondary containment integrity</t>
-  </si>
-  <si>
-    <t>(263000A3.03) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Transfers</t>
-  </si>
-  <si>
-    <t>(215003A4.03) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM range switches</t>
-  </si>
-  <si>
-    <t>(211000K2.01) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SLCS pumps</t>
-  </si>
-  <si>
-    <t>(272000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.5 / 45.5) Sample flows</t>
-  </si>
-  <si>
-    <t>(204000A2.11) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal system flow</t>
-  </si>
-  <si>
-    <t>(201005K5.11) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.5 to 41.7 / 45.3 / 45.5) Control rod motion</t>
-  </si>
-  <si>
-    <t>(202002A3.05) Ability to monitor automatic operation of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System runbacks</t>
-  </si>
-  <si>
-    <t>(290003A4.02) Ability to manually operate and/or monitor the (SF9 CRV) CONTROL ROOM VENTILATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Fans</t>
-  </si>
-  <si>
-    <t>(290002K1.23) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Intermediate range monitor system</t>
-  </si>
-  <si>
-    <t>(234000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FH) FUEL HANDLING and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel components</t>
-  </si>
-  <si>
-    <t>(290001K4.03) Knowledge of (SF5 SC) SECONDARY CONTAINMENT design features and/or interlocks that provide for the following: (CFR: 41.7) Fluid leakage collection</t>
-  </si>
-  <si>
-    <t>(201001) (SF1 CRDH) CRD HYDRAULIC SYSTEM (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239003K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(202001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.7 / 45.7) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+    <t>(259002A2.05) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of applicable plant air systems</t>
+  </si>
+  <si>
+    <t>(400000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Instrument air system</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (291005K1.04) MOTORS AND GENERATORS (CFR: 41.7) Relationship between pump motor current (ammeter reading) and the following: pump fluid flow, head, speed, and stator temperature</t>
+  </si>
+  <si>
+    <t>(263000A4.05) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Meters, dials, recorders, alarms, and indicating lights</t>
+  </si>
+  <si>
+    <t>(262001K4.09) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Divisional separation</t>
+  </si>
+  <si>
+    <t>(223002A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(205000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Fuel pool cooling and cleanup</t>
+  </si>
+  <si>
+    <t>(209001K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Heat removal (transfer) mechanisms</t>
+  </si>
+  <si>
+    <t>(300000K2.02) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Emergency air compressor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(218000A3.01) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS valves </t>
+  </si>
+  <si>
+    <t>(215003K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
+  </si>
+  <si>
+    <t>(226001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.5 / 45.5) Suppression chamber pressure (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(204000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM : (CFR: 41.7 / 45.7) Control rod drive hydraulic system</t>
+  </si>
+  <si>
+    <t>(290003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.5 / 45.3) Control of airborne contamination (e.g., radiological, toxic gas, smoke)</t>
+  </si>
+  <si>
+    <t>(288000K2.01) (SF9 PVS) PLANT VENTILATION SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Primary containment supply and exhaust fans</t>
+  </si>
+  <si>
+    <t>(233000A3.01) Ability to monitor automatic operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(256000K3.20) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Oxygen injection system</t>
+  </si>
+  <si>
+    <t>(223001A2.05) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High containment/drywell oxygen concentration</t>
+  </si>
+  <si>
+    <t>(290002K1.22) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Average power range monitor/local power range monitor system</t>
+  </si>
+  <si>
+    <t>(201001) (SF1 CRDH) CRD HYDRAULIC SYSTEM (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(215001A4.06) Ability to manually operate and/or monitor the (SF7 TIP) TRAVERSING IN CORE PROBE in the control room: (CFR: 41.7 / 45.5 to 45.8) Drive mechanism operation</t>
+  </si>
+  <si>
+    <t>(241000K4.13) Knowledge of (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Turbine trip testing</t>
   </si>
   <si>
     <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
   </si>
   <si>
     <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
   </si>
   <si>
-    <t>(292006K1.11) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Power changes from steady-state power to another</t>
-  </si>
-  <si>
-    <t>(292003K1.01) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the concept of subcritical multiplication</t>
-  </si>
-  <si>
-    <t>(293004K1.04) THERMODYNAMIC PROCESS (CFR: 41.14) (NOZZLES) Describe the functions of nozzles in air ejectors</t>
-  </si>
-  <si>
-    <t>(293009K1.12) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Describe the mode of fuel failure for APLHGR</t>
-  </si>
-  <si>
-    <t>(293007K1.10) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define core thermal power</t>
-  </si>
-  <si>
-    <t>(295016AA2.03) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(700000AA2.02) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator voltage limitations</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.12) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295011AA2.01) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
-  </si>
-  <si>
-    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215005A2.08) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/systems </t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(261000A2.12) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High fuel pool ventilation radiation</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(400000A2.03) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High/low CCW temperature</t>
-  </si>
-  <si>
-    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(271000A2.04) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Offgas system high radiation</t>
-  </si>
-  <si>
-    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+    <t>(292008K1.06) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (CRITICALITY) List parameters that should be monitored and controlled upon reaching initial criticality</t>
+  </si>
+  <si>
+    <t>(292004K1.04) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain Doppler broadening and self-shielding</t>
+  </si>
+  <si>
+    <t>(293003K1.22) STEAM (CFR: 41.14) Explain the usefulness of steam tables to the control</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t>(293008K1.22) THERMAL HYDRAULICS (CFR: 41.14) (VIODS AND VOID FRACTION) Explain the term void as applied to core operations</t>
+  </si>
+  <si>
+    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.02) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) RHR/shutdown cooling system flow</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295037EA2.09) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM air header pressure</t>
+  </si>
+  <si>
+    <t>(295035EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release rate</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295009AA2.01) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(203000A2.05) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC failures</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215005A2.03) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inoperable trip</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(261000A2.06) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve/damper closures</t>
+  </si>
+  <si>
+    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259001A2.08) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>G</t>
+    <t>A2</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>K5</t>
   </si>
   <si>
@@ -388,214 +388,214 @@
     <t>295016</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295004</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
     <t>295027</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295017</t>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>295035</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
     <t>295009</t>
   </si>
   <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
     <t>202001</t>
   </si>
   <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>223001</t>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>245000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
         <v>108</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D34" t="s">
         <v>106</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,7 +1664,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D42" t="s">
         <v>108</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D45" t="s">
         <v>116</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1820,7 +1820,7 @@
         <v>3.3</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,7 +1851,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D53" t="s">
         <v>108</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,7 +1953,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D59" t="s">
         <v>108</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D62" t="s">
         <v>106</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D77" t="s">
         <v>109</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D79" t="s">
         <v>109</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D80" t="s">
         <v>106</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
         <v>109</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D82" t="s">
         <v>106</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
         <v>109</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="s">
         <v>109</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D85" t="s">
         <v>106</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D87" t="s">
         <v>109</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="D88" t="s">
         <v>106</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D90" t="s">
         <v>106</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D91" t="s">
         <v>109</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
         <v>106</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D93" t="s">
         <v>109</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D94" t="s">
         <v>106</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
